--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Owner\Deer_GameFramework_Wolong\LubanTools\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubUnityProject\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896A066-7788-452E-9F9A-AAB2A21D3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="1824" windowWidth="23040" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8196" yWindow="1824" windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -163,46 +162,72 @@
     <t>PlayerData_Character</t>
   </si>
   <si>
+    <t>EntityData</t>
+  </si>
+  <si>
+    <t>LevelData</t>
+  </si>
+  <si>
+    <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_例子业务逻辑/UIData_Race.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_例子业务逻辑/UIData_Character.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_例子业务逻辑/EntityData.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_例子业务逻辑/LevelData_0.xlsx,T_例子业务逻辑/LevelData_1.xlsx,T_例子业务逻辑/LevelData_2.xlsx,T_例子业务逻辑/LevelData_3.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.TbLevelData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.TbCarEntityData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarEntityData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_移车让行/CarEntityData.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deer.TbCarMoveLevelData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarMoveLevelData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_移车让行/CarMoveLevelData.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Deer.TbEntityData</t>
-  </si>
-  <si>
-    <t>EntityData</t>
-  </si>
-  <si>
-    <t>Deer.TbLevelData</t>
-  </si>
-  <si>
-    <t>LevelData</t>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_GameMode.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Race.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/UIData_Character.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/PlayerData_Character.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/EntityData.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_例子业务逻辑/LevelData_0.xlsx,T_例子业务逻辑/LevelData_1.xlsx,T_例子业务逻辑/LevelData_2.xlsx,T_例子业务逻辑/LevelData_3.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,6 +240,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -553,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -727,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -743,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -759,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -773,35 +799,63 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
